--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC4C7F7-0B15-44D3-8FFE-EA6581122630}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1950" windowWidth="40470" windowHeight="22125" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57810" windowHeight="28605" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="OzSec Badge + Detail (Paths)" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/OLED-Displays-Modules_HS-HS91L02W2C01_C5248081.html</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -637,6 +640,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBF5675-40EC-42A3-92D9-84A4C1054337}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1369,7 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>

--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC4C7F7-0B15-44D3-8FFE-EA6581122630}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035721DD-278C-4843-B924-45D9B85DE0FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57810" windowHeight="28605" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
@@ -594,17 +594,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,6 +672,9 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I43">
+    <sortCondition ref="D1:D43"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2B331053-290A-45E8-B781-D5FECE043F67}" uniqueName="1" name="Id" queryTableFieldId="1"/>
     <tableColumn id="8" xr3:uid="{B4762AAD-FA25-43AB-A6E9-8E8E7C0E7B9C}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="5"/>
@@ -1111,28 +1115,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>110</v>
+      <c r="C5" s="4">
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -1140,28 +1144,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -1273,28 +1277,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1302,25 +1306,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -1331,28 +1335,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1360,28 +1364,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>105</v>
+      <c r="C14" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1389,28 +1393,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>113</v>
+      <c r="C15" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1418,28 +1422,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
+        <v>115</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -1447,28 +1451,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1476,28 +1480,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
       <c r="F18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
+        <v>132</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1505,28 +1509,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>114</v>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1534,28 +1538,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1563,28 +1567,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1618,25 +1622,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -1647,16 +1651,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -1665,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -1676,28 +1680,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1705,25 +1709,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -1734,28 +1738,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1763,28 +1767,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1821,28 +1825,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1850,28 +1854,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1879,25 +1883,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1908,28 +1912,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -1937,28 +1941,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -1966,28 +1970,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -1995,28 +1999,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -2024,28 +2028,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5">
-        <v>53</v>
+      <c r="C37" t="s">
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -2053,28 +2057,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>98</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -2082,28 +2086,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -2111,28 +2115,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -2140,28 +2144,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -2198,28 +2202,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -2236,13 +2240,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{02AEE1A6-5C60-4BD3-84D9-75FBD8764796}"/>
-    <hyperlink ref="H15" r:id="rId2" xr:uid="{7D06D06F-6D24-45A2-8690-8D94295A611A}"/>
-    <hyperlink ref="H19" r:id="rId3" xr:uid="{ABA9449B-D69C-46C9-8A32-66332D9E3542}"/>
-    <hyperlink ref="H27" r:id="rId4" xr:uid="{FA3E6AA4-183F-4ACD-AF42-926448D8BC74}"/>
-    <hyperlink ref="H38" r:id="rId5" xr:uid="{83F1546E-1DEA-4149-A6F3-B66E288F7304}"/>
-    <hyperlink ref="H34" r:id="rId6" xr:uid="{7BC3C767-797F-445F-A47C-D3B021D867EC}"/>
-    <hyperlink ref="H41" r:id="rId7" xr:uid="{C9E4BA65-4DBA-4C1B-B96C-340715CD0EAE}"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{02AEE1A6-5C60-4BD3-84D9-75FBD8764796}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{7D06D06F-6D24-45A2-8690-8D94295A611A}"/>
+    <hyperlink ref="H16" r:id="rId3" xr:uid="{ABA9449B-D69C-46C9-8A32-66332D9E3542}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{FA3E6AA4-183F-4ACD-AF42-926448D8BC74}"/>
+    <hyperlink ref="H14" r:id="rId5" xr:uid="{83F1546E-1DEA-4149-A6F3-B66E288F7304}"/>
+    <hyperlink ref="H43" r:id="rId6" xr:uid="{7BC3C767-797F-445F-A47C-D3B021D867EC}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{C9E4BA65-4DBA-4C1B-B96C-340715CD0EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035721DD-278C-4843-B924-45D9B85DE0FE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF740EE-E191-4A1E-BB21-C0FAEE6EF781}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57810" windowHeight="28605" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="40305" windowHeight="17475" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="OzSec Badge + Detail (Paths)" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Supplier and ref</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>_1</t>
   </si>
   <si>
@@ -515,6 +512,27 @@
   </si>
   <si>
     <t>D10</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Reel - 700</t>
+  </si>
+  <si>
+    <t>Reel - 5000</t>
+  </si>
+  <si>
+    <t>Reel - 4000</t>
+  </si>
+  <si>
+    <t>Reel - 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reel - 500 </t>
+  </si>
+  <si>
+    <t>Reel - 3000</t>
   </si>
 </sst>
 </file>
@@ -602,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -684,7 +702,7 @@
     <tableColumn id="4" xr3:uid="{FAADF724-2F4A-44A3-8B51-241720D073A5}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B75F10CD-E16B-470A-B3F7-2BEB5548300E}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{4027EEF2-8F57-4736-B6DC-4EF6405FDCD1}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{97B3ADF6-DF4A-4CDB-A56A-8360BE27790A}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{97B3ADF6-DF4A-4CDB-A56A-8360BE27790A}" uniqueName="7" name="Stock" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,7 +1008,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1032,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1040,25 +1058,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1066,25 +1084,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1092,25 +1110,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,28 +1136,28 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,28 +1165,28 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1176,25 +1194,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1202,25 +1220,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1228,25 +1246,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1254,25 +1272,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,28 +1298,28 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,28 +1327,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1338,28 +1356,28 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1367,28 +1385,28 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>124</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>125</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,28 +1414,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,28 +1443,28 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,28 +1472,28 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,28 +1501,28 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1512,28 +1530,28 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,28 +1559,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,28 +1588,28 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>82</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,25 +1617,25 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
         <v>153</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>154</v>
-      </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1625,28 +1643,28 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1654,28 +1672,28 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1683,28 +1701,28 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1712,28 +1730,28 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1741,28 +1759,28 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1770,28 +1788,28 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1799,28 +1817,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1828,28 +1846,28 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1857,28 +1875,28 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1886,28 +1904,28 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>48</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1915,28 +1933,28 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1944,28 +1962,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>69</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>70</v>
-      </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,28 +1991,28 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2002,28 +2020,28 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
         <v>103</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
       </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2031,28 +2049,28 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2060,28 +2078,28 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
         <v>103</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2089,28 +2107,28 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>41</v>
       </c>
-      <c r="E39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
-      </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,28 +2136,28 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>65</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>66</v>
-      </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2147,28 +2165,28 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
         <v>62</v>
       </c>
-      <c r="E41" t="s">
-        <v>63</v>
-      </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2176,28 +2194,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
         <v>134</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2205,36 +2220,36 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
         <v>151</v>
-      </c>
-      <c r="F45" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF740EE-E191-4A1E-BB21-C0FAEE6EF781}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B5A23D-0AB7-4DE8-BC27-BDA7E9A1E2C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="40305" windowHeight="17475" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38130" windowHeight="18420" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="OzSec Badge + Detail (Paths)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'OzSec Badge + Detail (Paths)'!$A$1:$I$43</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'OzSec Badge + Detail (Paths)'!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -214,9 +214,6 @@
     <t>RN1</t>
   </si>
   <si>
-    <t>R_Array_Convex_4x1206</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Battery Connectors</t>
   </si>
   <si>
-    <t>https://www.lcsc.com/product-detail/Battery-Connectors_Keystone-53_C5352788.html</t>
-  </si>
-  <si>
     <t>https://www.lcsc.com/product-detail/Resettable-Fuses_TLC-Electronic-TLC-NSMD200_C261957.html</t>
   </si>
   <si>
@@ -533,6 +527,42 @@
   </si>
   <si>
     <t>Reel - 3000</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL31A107MQHNNNE_C15008.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21B105KBFNNNE_C28323.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL21A226MAYNNNE_C602037.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-0710KL_C132649.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-071ML_C108083.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-07330RL_C114944.html</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-072KL_C133543.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-070RL_C137394.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Resistor-Networks-Arrays_YAGEO-YC164-JR-071KL_C93675.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Battery-Connectors_Keystone-53_C5352788.html / https://www.digikey.com/en/products/detail/keystone-electronics/53TR/2137975</t>
+  </si>
+  <si>
+    <t>Ordered 8/25</t>
   </si>
 </sst>
 </file>
@@ -612,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -624,6 +654,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,8 +715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}" name="Table_OzSec_Badge___Detail__Paths" displayName="Table_OzSec_Badge___Detail__Paths" ref="A1:I43" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I43" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}" name="Table_OzSec_Badge___Detail__Paths" displayName="Table_OzSec_Badge___Detail__Paths" ref="A1:I44" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I44" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -1008,7 +1039,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1050,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1058,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1084,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1110,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1142,22 +1173,22 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -1186,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1194,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1220,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1246,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1272,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1301,25 +1332,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1330,10 +1361,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -1345,10 +1376,10 @@
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1359,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -1371,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1388,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -1400,13 +1431,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1417,10 +1448,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1432,10 +1463,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1446,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -1458,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1475,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1487,13 +1518,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1516,13 +1547,13 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1533,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -1548,10 +1579,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1562,10 +1593,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -1574,13 +1605,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1591,25 +1622,25 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>81</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1617,7 +1648,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -1632,10 +1663,10 @@
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1646,10 +1677,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -1658,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1675,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -1687,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1704,10 +1735,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -1716,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1733,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -1745,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1762,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1780,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1791,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -1803,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1820,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -1832,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1849,13 +1880,13 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1864,10 +1895,10 @@
         <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1878,13 +1909,13 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1893,10 +1924,10 @@
         <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1907,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -1922,10 +1953,10 @@
         <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1936,25 +1967,25 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1965,25 +1996,25 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>68</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>69</v>
-      </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1994,13 +2025,13 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2009,10 +2040,10 @@
         <v>53</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2023,13 +2054,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2038,10 +2069,10 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2052,13 +2083,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2067,10 +2098,10 @@
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2081,13 +2112,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2096,10 +2127,10 @@
         <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2110,13 +2141,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2125,10 +2156,10 @@
         <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2139,25 +2170,25 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>64</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>65</v>
-      </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I40" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2168,25 +2199,25 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
         <v>61</v>
       </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2197,22 +2228,25 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="I42" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,33 +2257,41 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s">
-        <v>10</v>
-      </c>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2262,11 +2304,12 @@
     <hyperlink ref="H14" r:id="rId5" xr:uid="{83F1546E-1DEA-4149-A6F3-B66E288F7304}"/>
     <hyperlink ref="H43" r:id="rId6" xr:uid="{7BC3C767-797F-445F-A47C-D3B021D867EC}"/>
     <hyperlink ref="H21" r:id="rId7" xr:uid="{C9E4BA65-4DBA-4C1B-B96C-340715CD0EAE}"/>
+    <hyperlink ref="H5" r:id="rId8" display="https://www.lcsc.com/product-detail/Battery-Connectors_Keystone-53_C5352788.html" xr:uid="{DF3E2D6C-6A68-4E13-9BC9-842144935CB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B5A23D-0AB7-4DE8-BC27-BDA7E9A1E2C7}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28CF3DE-C9D0-4E80-AC3D-261A038BBB69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38130" windowHeight="18420" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="OzSec Badge + Detail (Paths)" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -642,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -654,7 +654,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1036,23 +1035,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBF5675-40EC-42A3-92D9-84A4C1054337}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="10" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="152.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="152.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,14 +2279,6 @@
       <c r="I43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
@@ -2307,7 +2301,7 @@
     <hyperlink ref="H5" r:id="rId8" display="https://www.lcsc.com/product-detail/Battery-Connectors_Keystone-53_C5352788.html" xr:uid="{DF3E2D6C-6A68-4E13-9BC9-842144935CB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup scale="91" orientation="landscape" r:id="rId9"/>
   <tableParts count="1">
     <tablePart r:id="rId10"/>
   </tableParts>

--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28CF3DE-C9D0-4E80-AC3D-261A038BBB69}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515B5799-111D-478D-9F3E-B53A8859A284}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="OzSec Badge + Detail (Paths)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'OzSec Badge + Detail (Paths)'!$A$1:$I$44</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'OzSec Badge + Detail (Paths)'!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -508,27 +508,6 @@
     <t>D10</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Reel - 700</t>
-  </si>
-  <si>
-    <t>Reel - 5000</t>
-  </si>
-  <si>
-    <t>Reel - 4000</t>
-  </si>
-  <si>
-    <t>Reel - 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reel - 500 </t>
-  </si>
-  <si>
-    <t>Reel - 3000</t>
-  </si>
-  <si>
     <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL31A107MQHNNNE_C15008.html</t>
   </si>
   <si>
@@ -547,9 +526,6 @@
     <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-07330RL_C114944.html</t>
   </si>
   <si>
-    <t>ALT</t>
-  </si>
-  <si>
     <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC1206FR-072KL_C133543.html</t>
   </si>
   <si>
@@ -560,9 +536,6 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Battery-Connectors_Keystone-53_C5352788.html / https://www.digikey.com/en/products/detail/keystone-electronics/53TR/2137975</t>
-  </si>
-  <si>
-    <t>Ordered 8/25</t>
   </si>
 </sst>
 </file>
@@ -659,10 +632,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -691,14 +661,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{27C2F168-0181-41A6-8A2B-0538144C352C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
-    <queryTableFields count="9">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="8" name="_1" tableColumnId="8"/>
       <queryTableField id="10" dataBound="0" tableColumnId="9"/>
@@ -707,32 +673,33 @@
       <queryTableField id="4" name="Quantity" tableColumnId="4"/>
       <queryTableField id="5" name="Designation" tableColumnId="5"/>
       <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
-      <queryTableField id="7" name="Column1" tableColumnId="7"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Column1"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}" name="Table_OzSec_Badge___Detail__Paths" displayName="Table_OzSec_Badge___Detail__Paths" ref="A1:I44" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I44" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}" name="Table_OzSec_Badge___Detail__Paths" displayName="Table_OzSec_Badge___Detail__Paths" ref="A1:H44" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H44" xr:uid="{73B24488-DDF7-4CC3-AC31-DA5C513DC6EB}">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H43">
     <sortCondition ref="D1:D43"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2B331053-290A-45E8-B781-D5FECE043F67}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{B4762AAD-FA25-43AB-A6E9-8E8E7C0E7B9C}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B4762AAD-FA25-43AB-A6E9-8E8E7C0E7B9C}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{40787DB3-7E7E-4E7D-9AAE-A871125AF938}" uniqueName="9" name="mfg Part #" queryTableFieldId="10"/>
-    <tableColumn id="2" xr3:uid="{3A1C2EFB-C43A-438D-A435-7CA9DBE6EFEF}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{658D6B48-720B-4186-B957-E7B67AA12C38}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3A1C2EFB-C43A-438D-A435-7CA9DBE6EFEF}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{658D6B48-720B-4186-B957-E7B67AA12C38}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{FAADF724-2F4A-44A3-8B51-241720D073A5}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{B75F10CD-E16B-470A-B3F7-2BEB5548300E}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4027EEF2-8F57-4736-B6DC-4EF6405FDCD1}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{97B3ADF6-DF4A-4CDB-A56A-8360BE27790A}" uniqueName="7" name="Stock" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B75F10CD-E16B-470A-B3F7-2BEB5548300E}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4027EEF2-8F57-4736-B6DC-4EF6405FDCD1}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1038,10 +1005,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,11 +1020,10 @@
     <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="152.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="157.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,11 +1048,8 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,11 +1071,8 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1134,11 +1094,8 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,11 +1117,8 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36</v>
       </c>
@@ -1187,13 +1141,10 @@
         <v>75</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22</v>
       </c>
@@ -1218,11 +1169,8 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1244,11 +1192,8 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1270,11 +1215,8 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1296,11 +1238,8 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1322,11 +1261,8 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1349,13 +1285,10 @@
         <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -1378,13 +1311,10 @@
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -1407,13 +1337,10 @@
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
@@ -1438,11 +1365,8 @@
       <c r="H14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1467,11 +1391,8 @@
       <c r="H15" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1496,11 +1417,8 @@
       <c r="H16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1525,11 +1443,8 @@
       <c r="H17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1554,11 +1469,8 @@
       <c r="H18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1583,11 +1495,8 @@
       <c r="H19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26</v>
       </c>
@@ -1612,11 +1521,8 @@
       <c r="H20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1641,11 +1547,8 @@
       <c r="H21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1667,11 +1570,8 @@
       <c r="H22" t="s">
         <v>151</v>
       </c>
-      <c r="I22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
@@ -1694,13 +1594,10 @@
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34</v>
       </c>
@@ -1723,13 +1620,10 @@
         <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>39</v>
       </c>
@@ -1752,13 +1646,10 @@
         <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>42</v>
       </c>
@@ -1781,13 +1672,10 @@
         <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -1812,11 +1700,8 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-      <c r="I27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -1839,13 +1724,10 @@
         <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1870,11 +1752,8 @@
       <c r="H29" t="s">
         <v>10</v>
       </c>
-      <c r="I29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1899,11 +1778,8 @@
       <c r="H30" t="s">
         <v>95</v>
       </c>
-      <c r="I30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -1926,13 +1802,10 @@
         <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -1955,13 +1828,10 @@
         <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -1986,11 +1856,8 @@
       <c r="H33" t="s">
         <v>95</v>
       </c>
-      <c r="I33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2015,11 +1882,8 @@
       <c r="H34" t="s">
         <v>92</v>
       </c>
-      <c r="I34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
@@ -2044,11 +1908,8 @@
       <c r="H35" t="s">
         <v>95</v>
       </c>
-      <c r="I35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -2073,11 +1934,8 @@
       <c r="H36" t="s">
         <v>95</v>
       </c>
-      <c r="I36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -2102,11 +1960,8 @@
       <c r="H37" t="s">
         <v>95</v>
       </c>
-      <c r="I37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -2131,11 +1986,8 @@
       <c r="H38" t="s">
         <v>95</v>
       </c>
-      <c r="I38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -2160,11 +2012,8 @@
       <c r="H39" t="s">
         <v>95</v>
       </c>
-      <c r="I39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -2189,11 +2038,8 @@
       <c r="H40" t="s">
         <v>134</v>
       </c>
-      <c r="I40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>29</v>
       </c>
@@ -2218,11 +2064,8 @@
       <c r="H41" t="s">
         <v>133</v>
       </c>
-      <c r="I41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2247,11 +2090,8 @@
       <c r="H42" t="s">
         <v>132</v>
       </c>
-      <c r="I42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>33</v>
       </c>
@@ -2276,11 +2116,8 @@
       <c r="H43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>148</v>
       </c>

--- a/DOCS/KC_BOM.xlsx
+++ b/DOCS/KC_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/BSidesKC23/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515B5799-111D-478D-9F3E-B53A8859A284}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{6FC27E1A-1A92-4826-A887-D3236D885D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D04F34-9117-4D9A-AA5E-9D0EDCFBB2DB}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="38560" windowHeight="13340" xr2:uid="{062BDCAA-2B8B-4A5F-A04B-1DCDD0935ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="OzSec Badge + Detail (Paths)" sheetId="2" r:id="rId1"/>
@@ -1007,23 +1007,23 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="22" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="157.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" customWidth="1"/>
+    <col min="2" max="2" width="2.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="157.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>36</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>22</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>31</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>37</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>26</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>38</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>34</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>39</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>42</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>11</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>23</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>25</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>20</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>27</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>24</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>16</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>17</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>30</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>29</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>33</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>148</v>
       </c>
